--- a/raw_data/20200818_saline/20200818_Sensor1_Test_3.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_3.xlsx
@@ -1,1354 +1,1770 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECAAFC5-0782-441E-B9D1-991EB8BE6F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>1987.161062</v>
+        <v>1987.1610619999999</v>
       </c>
       <c r="B2" s="1">
-        <v>0.551989</v>
+        <v>0.55198899999999995</v>
       </c>
       <c r="C2" s="1">
-        <v>896.890000</v>
+        <v>896.89</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.156000</v>
+        <v>-202.15600000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1997.638056</v>
       </c>
       <c r="G2" s="1">
-        <v>0.554899</v>
+        <v>0.55489900000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>915.399000</v>
+        <v>915.399</v>
       </c>
       <c r="I2" s="1">
-        <v>-170.839000</v>
+        <v>-170.839</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>2008.106638</v>
       </c>
       <c r="L2" s="1">
-        <v>0.557807</v>
+        <v>0.55780700000000005</v>
       </c>
       <c r="M2" s="1">
-        <v>938.464000</v>
+        <v>938.46400000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.880000</v>
+        <v>-120.88</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>2018.578188</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.560716</v>
+        <v>0.56071599999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>945.181000</v>
+        <v>945.18100000000004</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.190000</v>
+        <v>-104.19</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>2029.149422</v>
       </c>
       <c r="V2" s="1">
-        <v>0.563653</v>
+        <v>0.56365299999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>951.714000</v>
+        <v>951.71400000000006</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.831600</v>
+        <v>-88.831599999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>2039.897727</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.566638</v>
+        <v>0.56663799999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>958.893000</v>
+        <v>958.89300000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.186000</v>
+        <v>-76.186000000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>2050.225394</v>
+        <v>2050.2253940000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.569507</v>
+        <v>0.56950699999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>963.566000</v>
+        <v>963.56600000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-73.497800</v>
+        <v>-73.497799999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2060.354693</v>
+        <v>2060.3546930000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.572321</v>
+        <v>0.57232099999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>970.565000</v>
+        <v>970.56500000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-77.845800</v>
+        <v>-77.845799999999997</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>2070.570295</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.575158</v>
+        <v>0.57515799999999995</v>
       </c>
       <c r="AQ2" s="1">
-        <v>978.444000</v>
+        <v>978.44399999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-88.937600</v>
+        <v>-88.937600000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>2081.569610</v>
+        <v>2081.56961</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.578214</v>
+        <v>0.57821400000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>987.929000</v>
+        <v>987.92899999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-106.034000</v>
+        <v>-106.03400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>2092.325850</v>
+        <v>2092.3258500000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>0.581202</v>
       </c>
       <c r="BA2" s="1">
-        <v>995.854000</v>
+        <v>995.85400000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-121.173000</v>
+        <v>-121.173</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>2103.261153</v>
+        <v>2103.2611529999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.584239</v>
+        <v>0.58423899999999995</v>
       </c>
       <c r="BF2" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG2" s="1">
-        <v>-191.317000</v>
+        <v>-191.31700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>2114.346930</v>
+        <v>2114.3469300000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.587319</v>
+        <v>0.58731900000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL2" s="1">
-        <v>-306.290000</v>
+        <v>-306.29000000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>2125.398559</v>
+        <v>2125.3985590000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.590388</v>
+        <v>0.59038800000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1200.800000</v>
+        <v>1200.8</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.181000</v>
+        <v>-489.18099999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>2136.176660</v>
+        <v>2136.1766600000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.593382</v>
+        <v>0.59338199999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1318.910000</v>
+        <v>1318.91</v>
       </c>
       <c r="BV2" s="1">
-        <v>-690.720000</v>
+        <v>-690.72</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>2147.205667</v>
+        <v>2147.2056670000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.596446</v>
+        <v>0.59644600000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1452.600000</v>
+        <v>1452.6</v>
       </c>
       <c r="CA2" s="1">
-        <v>-906.340000</v>
+        <v>-906.34</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>2158.156341</v>
+        <v>2158.1563409999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.599488</v>
+        <v>0.59948800000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1806.200000</v>
+        <v>1806.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1419.090000</v>
+        <v>-1419.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>1987.587622</v>
       </c>
       <c r="B3" s="1">
-        <v>0.552108</v>
+        <v>0.55210800000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>896.828000</v>
+        <v>896.82799999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.112000</v>
+        <v>-202.11199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1997.984300</v>
+        <v>1997.9843000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>0.554996</v>
+        <v>0.55499600000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>915.019000</v>
+        <v>915.01900000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-170.989000</v>
+        <v>-170.989</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>2008.475643</v>
       </c>
       <c r="L3" s="1">
-        <v>0.557910</v>
+        <v>0.55791000000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>938.313000</v>
+        <v>938.31299999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.751000</v>
+        <v>-120.751</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2019.283963</v>
+        <v>2019.2839630000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.560912</v>
+        <v>0.56091199999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>945.146000</v>
+        <v>945.14599999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.235000</v>
+        <v>-104.235</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>2029.833375</v>
+        <v>2029.8333749999999</v>
       </c>
       <c r="V3" s="1">
-        <v>0.563843</v>
+        <v>0.56384299999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>951.853000</v>
+        <v>951.85299999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.095000</v>
+        <v>-88.094999999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>2040.312880</v>
+        <v>2040.31288</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.566754</v>
+        <v>0.56675399999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>958.968000</v>
+        <v>958.96799999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.249300</v>
+        <v>-76.249300000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>2050.571140</v>
+        <v>2050.57114</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.569603</v>
+        <v>0.56960299999999997</v>
       </c>
       <c r="AG3" s="1">
-        <v>963.576000</v>
+        <v>963.57600000000002</v>
       </c>
       <c r="AH3" s="1">
-        <v>-73.514100</v>
+        <v>-73.514099999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>2060.704373</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.572418</v>
+        <v>0.57241799999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>970.590000</v>
+        <v>970.59</v>
       </c>
       <c r="AM3" s="1">
-        <v>-77.869700</v>
+        <v>-77.869699999999995</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>2070.961640</v>
+        <v>2070.96164</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.575267</v>
+        <v>0.57526699999999997</v>
       </c>
       <c r="AQ3" s="1">
-        <v>978.403000</v>
+        <v>978.40300000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-88.936400</v>
+        <v>-88.936400000000006</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>2082.004600</v>
+        <v>2082.0046000000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.578335</v>
+        <v>0.57833500000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>987.928000</v>
+        <v>987.928</v>
       </c>
       <c r="AW3" s="1">
-        <v>-106.019000</v>
+        <v>-106.01900000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>2092.750890</v>
+        <v>2092.7508899999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.581320</v>
+        <v>0.58131999999999995</v>
       </c>
       <c r="BA3" s="1">
-        <v>995.859000</v>
+        <v>995.85900000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-121.156000</v>
+        <v>-121.15600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>2103.695612</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.584360</v>
+        <v>0.58435999999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG3" s="1">
-        <v>-191.311000</v>
+        <v>-191.31100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>2114.727134</v>
+        <v>2114.7271340000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.587424</v>
+        <v>0.58742399999999995</v>
       </c>
       <c r="BK3" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL3" s="1">
-        <v>-306.332000</v>
+        <v>-306.33199999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>2125.831566</v>
+        <v>2125.8315659999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.590509</v>
+        <v>0.59050899999999995</v>
       </c>
       <c r="BP3" s="1">
-        <v>1200.760000</v>
+        <v>1200.76</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.210000</v>
+        <v>-489.21</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>2136.629968</v>
+        <v>2136.6299680000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.593508</v>
+        <v>0.59350800000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1318.930000</v>
+        <v>1318.93</v>
       </c>
       <c r="BV3" s="1">
-        <v>-690.781000</v>
+        <v>-690.78099999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>2147.669425</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.596575</v>
+        <v>0.59657499999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1452.680000</v>
+        <v>1452.68</v>
       </c>
       <c r="CA3" s="1">
-        <v>-906.390000</v>
+        <v>-906.39</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>2158.749555</v>
+        <v>2158.7495549999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.599653</v>
+        <v>0.59965299999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1805.000000</v>
+        <v>1805</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1419.320000</v>
+        <v>-1419.32</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>1987.927381</v>
       </c>
       <c r="B4" s="1">
-        <v>0.552202</v>
+        <v>0.55220199999999997</v>
       </c>
       <c r="C4" s="1">
-        <v>896.807000</v>
+        <v>896.80700000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.147000</v>
+        <v>-202.14699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>1998.642456</v>
       </c>
       <c r="G4" s="1">
-        <v>0.555178</v>
+        <v>0.55517799999999995</v>
       </c>
       <c r="H4" s="1">
-        <v>915.002000</v>
+        <v>915.00199999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.010000</v>
+        <v>-171.01</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2009.131880</v>
+        <v>2009.1318799999999</v>
       </c>
       <c r="L4" s="1">
-        <v>0.558092</v>
+        <v>0.55809200000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>938.294000</v>
+        <v>938.29399999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.861000</v>
+        <v>-120.861</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>2019.663403</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.561018</v>
+        <v>0.56101800000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>945.113000</v>
+        <v>945.11300000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.205000</v>
+        <v>-104.205</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>2030.216818</v>
+        <v>2030.2168180000001</v>
       </c>
       <c r="V4" s="1">
-        <v>0.563949</v>
+        <v>0.56394900000000003</v>
       </c>
       <c r="W4" s="1">
-        <v>951.883000</v>
+        <v>951.88300000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.048200</v>
+        <v>-88.048199999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>2040.663023</v>
+        <v>2040.6630230000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.566851</v>
+        <v>0.56685099999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>958.987000</v>
+        <v>958.98699999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.074500</v>
+        <v>-76.0745</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>2050.914371</v>
+        <v>2050.9143709999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.569698</v>
+        <v>0.56969800000000004</v>
       </c>
       <c r="AG4" s="1">
-        <v>963.563000</v>
+        <v>963.56299999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-73.494200</v>
+        <v>-73.494200000000006</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>2061.053556</v>
+        <v>2061.0535559999998</v>
       </c>
       <c r="AK4" s="1">
         <v>0.572515</v>
       </c>
       <c r="AL4" s="1">
-        <v>970.574000</v>
+        <v>970.57399999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-77.840000</v>
+        <v>-77.84</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>2071.375304</v>
+        <v>2071.3753040000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.575382</v>
+        <v>0.57538199999999995</v>
       </c>
       <c r="AQ4" s="1">
-        <v>978.450000</v>
+        <v>978.45</v>
       </c>
       <c r="AR4" s="1">
-        <v>-88.950700</v>
+        <v>-88.950699999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>2082.302665</v>
+        <v>2082.3026650000002</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.578417</v>
+        <v>0.57841699999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>987.930000</v>
+        <v>987.93</v>
       </c>
       <c r="AW4" s="1">
-        <v>-106.016000</v>
+        <v>-106.01600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>2093.067339</v>
+        <v>2093.0673390000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.581408</v>
+        <v>0.58140800000000004</v>
       </c>
       <c r="BA4" s="1">
-        <v>995.879000</v>
+        <v>995.87900000000002</v>
       </c>
       <c r="BB4" s="1">
-        <v>-121.179000</v>
+        <v>-121.179</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>2104.053723</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.584459</v>
+        <v>0.58445899999999995</v>
       </c>
       <c r="BF4" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-191.326000</v>
+        <v>-191.32599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>2115.100654</v>
+        <v>2115.1006539999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.587528</v>
+        <v>0.58752800000000005</v>
       </c>
       <c r="BK4" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-306.298000</v>
+        <v>-306.298</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>2126.226382</v>
+        <v>2126.2263819999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.590618</v>
+        <v>0.59061799999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.214000</v>
+        <v>-489.214</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>2137.054577</v>
+        <v>2137.0545769999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.593626</v>
+        <v>0.59362599999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1318.960000</v>
+        <v>1318.96</v>
       </c>
       <c r="BV4" s="1">
-        <v>-690.676000</v>
+        <v>-690.67600000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>2148.116321</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.596699</v>
+        <v>0.59669899999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1452.610000</v>
+        <v>1452.61</v>
       </c>
       <c r="CA4" s="1">
-        <v>-906.449000</v>
+        <v>-906.44899999999996</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>2159.286756</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.599802</v>
+        <v>0.59980199999999995</v>
       </c>
       <c r="CE4" s="1">
-        <v>1805.950000</v>
+        <v>1805.95</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1420.120000</v>
+        <v>-1420.12</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>1988.597973</v>
+        <v>1988.5979729999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.552388</v>
+        <v>0.55238799999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>896.891000</v>
+        <v>896.89099999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.250000</v>
+        <v>-202.25</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1999.015942</v>
       </c>
       <c r="G5" s="1">
-        <v>0.555282</v>
+        <v>0.55528200000000005</v>
       </c>
       <c r="H5" s="1">
-        <v>914.839000</v>
+        <v>914.83900000000006</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.767000</v>
+        <v>-170.767</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2009.514793</v>
+        <v>2009.5147930000001</v>
       </c>
       <c r="L5" s="1">
         <v>0.558199</v>
       </c>
       <c r="M5" s="1">
-        <v>938.420000</v>
+        <v>938.42</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.794000</v>
+        <v>-120.794</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>2020.011099</v>
+        <v>2020.0110990000001</v>
       </c>
       <c r="Q5" s="1">
         <v>0.561114</v>
       </c>
       <c r="R5" s="1">
-        <v>945.128000</v>
+        <v>945.12800000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.177000</v>
+        <v>-104.17700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>2030.559020</v>
+        <v>2030.5590199999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.564044</v>
+        <v>0.56404399999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>951.945000</v>
+        <v>951.94500000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.100700</v>
+        <v>-88.100700000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>2041.007248</v>
+        <v>2041.0072479999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.566946</v>
+        <v>0.56694599999999995</v>
       </c>
       <c r="AB5" s="1">
-        <v>958.856000</v>
+        <v>958.85599999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.187800</v>
+        <v>-76.187799999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>2051.331504</v>
+        <v>2051.3315040000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.569814</v>
+        <v>0.56981400000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>963.569000</v>
+        <v>963.56899999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-73.492400</v>
+        <v>-73.492400000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>2061.471685</v>
@@ -1357,1011 +1773,1011 @@
         <v>0.572631</v>
       </c>
       <c r="AL5" s="1">
-        <v>970.566000</v>
+        <v>970.56600000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-77.849500</v>
+        <v>-77.849500000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>2071.679883</v>
+        <v>2071.6798829999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.575467</v>
+        <v>0.57546699999999995</v>
       </c>
       <c r="AQ5" s="1">
-        <v>978.432000</v>
+        <v>978.43200000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-88.947400</v>
+        <v>-88.947400000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>2082.664248</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.578518</v>
+        <v>0.57851799999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>987.948000</v>
+        <v>987.94799999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-106.023000</v>
+        <v>-106.023</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>2093.427433</v>
+        <v>2093.4274329999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.581508</v>
+        <v>0.58150800000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>995.869000</v>
+        <v>995.86900000000003</v>
       </c>
       <c r="BB5" s="1">
-        <v>-121.171000</v>
+        <v>-121.17100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>2104.417322</v>
+        <v>2104.4173219999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.584560</v>
+        <v>0.58455999999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG5" s="1">
-        <v>-191.323000</v>
+        <v>-191.32300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>2115.873885</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.587743</v>
+        <v>0.58774300000000002</v>
       </c>
       <c r="BK5" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-306.322000</v>
+        <v>-306.322</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>2126.647486</v>
+        <v>2126.6474859999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.590735</v>
+        <v>0.59073500000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.236000</v>
+        <v>-489.23599999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>2137.466225</v>
+        <v>2137.4662250000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.593741</v>
+        <v>0.59374099999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>1319.040000</v>
+        <v>1319.04</v>
       </c>
       <c r="BV5" s="1">
-        <v>-690.642000</v>
+        <v>-690.64200000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>2148.548833</v>
+        <v>2148.5488329999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.596819</v>
+        <v>0.59681899999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1452.650000</v>
+        <v>1452.65</v>
       </c>
       <c r="CA5" s="1">
-        <v>-906.474000</v>
+        <v>-906.47400000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>2159.829378</v>
+        <v>2159.8293779999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.599953</v>
+        <v>0.59995299999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1805.280000</v>
+        <v>1805.28</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1418.760000</v>
+        <v>-1418.76</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>1988.951646</v>
       </c>
       <c r="B6" s="1">
-        <v>0.552487</v>
+        <v>0.55248699999999995</v>
       </c>
       <c r="C6" s="1">
-        <v>896.836000</v>
+        <v>896.83600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.222000</v>
+        <v>-202.22200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1999.362151</v>
       </c>
       <c r="G6" s="1">
-        <v>0.555378</v>
+        <v>0.55537800000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>914.946000</v>
+        <v>914.94600000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.843000</v>
+        <v>-170.84299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2009.858024</v>
+        <v>2009.8580239999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.558294</v>
+        <v>0.55829399999999996</v>
       </c>
       <c r="M6" s="1">
-        <v>938.279000</v>
+        <v>938.279</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.975000</v>
+        <v>-120.97499999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>2020.361275</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.561211</v>
+        <v>0.56121100000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>945.158000</v>
+        <v>945.15800000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.170000</v>
+        <v>-104.17</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>2031.143803</v>
+        <v>2031.1438029999999</v>
       </c>
       <c r="V6" s="1">
-        <v>0.564207</v>
+        <v>0.56420700000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>951.859000</v>
+        <v>951.85900000000004</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.064500</v>
+        <v>-88.064499999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>2041.429348</v>
+        <v>2041.4293479999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.567064</v>
+        <v>0.56706400000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>958.813000</v>
+        <v>958.81299999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.183600</v>
+        <v>-76.183599999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>2051.599346</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.569889</v>
+        <v>0.56988899999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>963.533000</v>
+        <v>963.53300000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-73.473400</v>
+        <v>-73.473399999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2061.749939</v>
+        <v>2061.7499389999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.572708</v>
+        <v>0.57270799999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>970.585000</v>
+        <v>970.58500000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-77.877100</v>
+        <v>-77.877099999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>2072.038981</v>
+        <v>2072.0389810000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.575566</v>
+        <v>0.57556600000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>978.421000</v>
+        <v>978.42100000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-88.960300</v>
+        <v>-88.960300000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>2083.030791</v>
+        <v>2083.0307910000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.578620</v>
+        <v>0.57862000000000002</v>
       </c>
       <c r="AV6" s="1">
-        <v>987.918000</v>
+        <v>987.91800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-106.045000</v>
+        <v>-106.045</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>2093.788056</v>
+        <v>2093.7880559999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.581608</v>
+        <v>0.58160800000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>995.869000</v>
+        <v>995.86900000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-121.175000</v>
+        <v>-121.175</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>2105.138505</v>
+        <v>2105.1385049999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.584761</v>
+        <v>0.58476099999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1032.810000</v>
+        <v>1032.81</v>
       </c>
       <c r="BG6" s="1">
-        <v>-191.337000</v>
+        <v>-191.33699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>2116.248363</v>
+        <v>2116.2483630000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.587847</v>
+        <v>0.58784700000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL6" s="1">
-        <v>-306.342000</v>
+        <v>-306.34199999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>2127.045672</v>
+        <v>2127.0456720000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.590846</v>
+        <v>0.59084599999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1200.810000</v>
+        <v>1200.81</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.210000</v>
+        <v>-489.21</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>2137.883391</v>
+        <v>2137.8833909999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.593856</v>
+        <v>0.59385600000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>1319.050000</v>
+        <v>1319.05</v>
       </c>
       <c r="BV6" s="1">
-        <v>-690.638000</v>
+        <v>-690.63800000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>2149.276959</v>
+        <v>2149.2769589999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.597021</v>
+        <v>0.59702100000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1452.600000</v>
+        <v>1452.6</v>
       </c>
       <c r="CA6" s="1">
-        <v>-906.485000</v>
+        <v>-906.48500000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>2160.678498</v>
+        <v>2160.6784980000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.600188</v>
+        <v>0.60018800000000005</v>
       </c>
       <c r="CE6" s="1">
-        <v>1806.570000</v>
+        <v>1806.57</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1419.530000</v>
+        <v>-1419.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>1989.294894</v>
+        <v>1989.2948940000001</v>
       </c>
       <c r="B7" s="1">
-        <v>0.552582</v>
+        <v>0.55258200000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>896.852000</v>
+        <v>896.85199999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.240000</v>
+        <v>-202.24</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1999.705382</v>
+        <v>1999.7053820000001</v>
       </c>
       <c r="G7" s="1">
-        <v>0.555474</v>
+        <v>0.55547400000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>915.027000</v>
+        <v>915.02700000000004</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.893000</v>
+        <v>-170.893</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2010.208168</v>
+        <v>2010.2081679999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.558391</v>
+        <v>0.55839099999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>938.359000</v>
+        <v>938.35900000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.914000</v>
+        <v>-120.914</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>2020.777913</v>
+        <v>2020.7779129999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.561327</v>
+        <v>0.56132700000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>945.155000</v>
+        <v>945.15499999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.178000</v>
+        <v>-104.178</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>2031.252460</v>
+        <v>2031.2524599999999</v>
       </c>
       <c r="V7" s="1">
-        <v>0.564237</v>
+        <v>0.56423699999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>951.913000</v>
+        <v>951.91300000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.117100</v>
+        <v>-88.117099999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>2041.707133</v>
+        <v>2041.7071330000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.567141</v>
+        <v>0.56714100000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>958.871000</v>
+        <v>958.87099999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.246100</v>
+        <v>-76.246099999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>2051.945024</v>
+        <v>2051.9450240000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.569985</v>
+        <v>0.56998499999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>963.583000</v>
+        <v>963.58299999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-73.509300</v>
+        <v>-73.509299999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>2062.099164</v>
+        <v>2062.0991640000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.572805</v>
+        <v>0.57280500000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>970.557000</v>
+        <v>970.55700000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-77.843200</v>
+        <v>-77.843199999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>2072.404005</v>
+        <v>2072.4040049999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.575668</v>
+        <v>0.57566799999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>978.424000</v>
+        <v>978.42399999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-88.966700</v>
+        <v>-88.966700000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>2083.756967</v>
+        <v>2083.7569669999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.578821</v>
+        <v>0.57882100000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>987.919000</v>
+        <v>987.91899999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>2094.501305</v>
+        <v>2094.5013049999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.581806</v>
+        <v>0.58180600000000005</v>
       </c>
       <c r="BA7" s="1">
-        <v>995.867000</v>
+        <v>995.86699999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-121.156000</v>
+        <v>-121.15600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>2105.501050</v>
+        <v>2105.5010499999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.584861</v>
+        <v>0.58486099999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG7" s="1">
-        <v>-191.347000</v>
+        <v>-191.34700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>2116.625818</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.587952</v>
+        <v>0.58795200000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1096.480000</v>
+        <v>1096.48</v>
       </c>
       <c r="BL7" s="1">
-        <v>-306.314000</v>
+        <v>-306.31400000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>2127.462299</v>
+        <v>2127.4622989999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.590962</v>
+        <v>0.59096199999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1200.790000</v>
+        <v>1200.79</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.198000</v>
+        <v>-489.19799999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>2138.603550</v>
+        <v>2138.6035499999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.594057</v>
+        <v>0.59405699999999995</v>
       </c>
       <c r="BU7" s="1">
-        <v>1319.080000</v>
+        <v>1319.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-690.609000</v>
+        <v>-690.60900000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>2149.418816</v>
+        <v>2149.4188159999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.597061</v>
+        <v>0.59706099999999995</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1452.560000</v>
+        <v>1452.56</v>
       </c>
       <c r="CA7" s="1">
-        <v>-906.484000</v>
+        <v>-906.48400000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>2160.907685</v>
+        <v>2160.9076850000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.600252</v>
+        <v>0.60025200000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1806.480000</v>
+        <v>1806.48</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1420.070000</v>
+        <v>-1420.07</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>1989.633655</v>
+        <v>1989.6336550000001</v>
       </c>
       <c r="B8" s="1">
-        <v>0.552676</v>
+        <v>0.55267599999999995</v>
       </c>
       <c r="C8" s="1">
-        <v>896.844000</v>
+        <v>896.84400000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.225000</v>
+        <v>-202.22499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>2000.118053</v>
+        <v>2000.1180529999999</v>
       </c>
       <c r="G8" s="1">
-        <v>0.555588</v>
+        <v>0.55558799999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>914.824000</v>
+        <v>914.82399999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-170.984000</v>
+        <v>-170.98400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2010.632743</v>
+        <v>2010.6327429999999</v>
       </c>
       <c r="L8" s="1">
-        <v>0.558509</v>
+        <v>0.55850900000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>938.398000</v>
+        <v>938.39800000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.913000</v>
+        <v>-120.913</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>2021.055321</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.561404</v>
+        <v>0.56140400000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>945.164000</v>
+        <v>945.16399999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.169000</v>
+        <v>-104.169</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>2031.592221</v>
+        <v>2031.5922210000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.564331</v>
+        <v>0.56433100000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>951.881000</v>
+        <v>951.88099999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.174900</v>
+        <v>-88.174899999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>2042.054301</v>
+        <v>2042.0543009999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.567237</v>
+        <v>0.56723699999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>958.918000</v>
+        <v>958.91800000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.116200</v>
+        <v>-76.116200000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>2052.290271</v>
+        <v>2052.2902709999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.570081</v>
+        <v>0.57008099999999995</v>
       </c>
       <c r="AG8" s="1">
-        <v>963.557000</v>
+        <v>963.55700000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-73.495600</v>
+        <v>-73.495599999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2062.447346</v>
+        <v>2062.4473459999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.572902</v>
+        <v>0.57290200000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>970.572000</v>
+        <v>970.572</v>
       </c>
       <c r="AM8" s="1">
-        <v>-77.837900</v>
+        <v>-77.837900000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>2073.122244</v>
+        <v>2073.1222440000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.575867</v>
+        <v>0.57586700000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>978.417000</v>
+        <v>978.41700000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-88.966200</v>
+        <v>-88.966200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>2084.141334</v>
+        <v>2084.1413339999999</v>
       </c>
       <c r="AU8" s="1">
         <v>0.578928</v>
       </c>
       <c r="AV8" s="1">
-        <v>987.939000</v>
+        <v>987.93899999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>2094.888178</v>
+        <v>2094.8881780000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.581913</v>
+        <v>0.58191300000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>995.865000</v>
+        <v>995.86500000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-121.179000</v>
+        <v>-121.179</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>2105.865609</v>
+        <v>2105.8656089999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.584963</v>
+        <v>0.58496300000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG8" s="1">
-        <v>-191.306000</v>
+        <v>-191.30600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>2117.308346</v>
+        <v>2117.3083459999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.588141</v>
+        <v>0.58814100000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-306.307000</v>
+        <v>-306.30700000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>2128.157841</v>
+        <v>2128.1578410000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.591155</v>
+        <v>0.59115499999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.223000</v>
+        <v>-489.22300000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>2138.731021</v>
+        <v>2138.7310210000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.594092</v>
+        <v>0.59409199999999995</v>
       </c>
       <c r="BU8" s="1">
-        <v>1319.240000</v>
+        <v>1319.24</v>
       </c>
       <c r="BV8" s="1">
-        <v>-690.620000</v>
+        <v>-690.62</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>2149.844383</v>
+        <v>2149.8443830000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.597179</v>
+        <v>0.59717900000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1452.610000</v>
+        <v>1452.61</v>
       </c>
       <c r="CA8" s="1">
-        <v>-906.507000</v>
+        <v>-906.50699999999995</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>2161.426463</v>
+        <v>2161.4264629999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.600396</v>
+        <v>0.60039600000000004</v>
       </c>
       <c r="CE8" s="1">
-        <v>1805.980000</v>
+        <v>1805.98</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1418.570000</v>
+        <v>-1418.57</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>1990.043345</v>
       </c>
       <c r="B9" s="1">
-        <v>0.552790</v>
+        <v>0.55279</v>
       </c>
       <c r="C9" s="1">
-        <v>896.911000</v>
+        <v>896.91099999999994</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.291000</v>
+        <v>-202.291</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2000.415654</v>
+        <v>2000.4156539999999</v>
       </c>
       <c r="G9" s="1">
-        <v>0.555671</v>
+        <v>0.55567100000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>915.204000</v>
+        <v>915.20399999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.901000</v>
+        <v>-170.90100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2010.898102</v>
+        <v>2010.8981020000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0.558583</v>
+        <v>0.55858300000000005</v>
       </c>
       <c r="M9" s="1">
-        <v>938.466000</v>
+        <v>938.46600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.906000</v>
+        <v>-120.90600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>2021.406840</v>
+        <v>2021.4068400000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.561502</v>
+        <v>0.56150199999999995</v>
       </c>
       <c r="R9" s="1">
-        <v>945.170000</v>
+        <v>945.17</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.223000</v>
+        <v>-104.223</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2031.933930</v>
+        <v>2031.9339299999999</v>
       </c>
       <c r="V9" s="1">
-        <v>0.564426</v>
+        <v>0.56442599999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>951.837000</v>
+        <v>951.83699999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.090700</v>
+        <v>-88.090699999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>2042.406958</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.567335</v>
+        <v>0.56733500000000003</v>
       </c>
       <c r="AB9" s="1">
-        <v>958.900000</v>
+        <v>958.9</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.167900</v>
+        <v>-76.167900000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>2052.977727</v>
@@ -2370,1194 +2786,1194 @@
         <v>0.570272</v>
       </c>
       <c r="AG9" s="1">
-        <v>963.543000</v>
+        <v>963.54300000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-73.511400</v>
+        <v>-73.511399999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2063.144193</v>
+        <v>2063.1441930000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.573096</v>
+        <v>0.57309600000000005</v>
       </c>
       <c r="AL9" s="1">
-        <v>970.605000</v>
+        <v>970.60500000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-77.840100</v>
+        <v>-77.840100000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>2073.483802</v>
+        <v>2073.4838020000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.575968</v>
+        <v>0.57596800000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>978.422000</v>
+        <v>978.42200000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-88.953500</v>
+        <v>-88.953500000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>2084.507414</v>
+        <v>2084.5074140000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.579030</v>
+        <v>0.57903000000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>987.914000</v>
+        <v>987.91399999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-106.029000</v>
+        <v>-106.029</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>2095.269079</v>
+        <v>2095.2690790000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.582019</v>
+        <v>0.58201899999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>995.883000</v>
+        <v>995.88300000000004</v>
       </c>
       <c r="BB9" s="1">
-        <v>-121.167000</v>
+        <v>-121.167</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>2106.524824</v>
+        <v>2106.5248240000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.585146</v>
+        <v>0.58514600000000005</v>
       </c>
       <c r="BF9" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG9" s="1">
-        <v>-191.346000</v>
+        <v>-191.346</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>2117.419915</v>
+        <v>2117.4199149999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.588172</v>
+        <v>0.58817200000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-306.315000</v>
+        <v>-306.315</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>2128.301147</v>
+        <v>2128.3011470000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.591195</v>
+        <v>0.59119500000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.254000</v>
+        <v>-489.25400000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>2139.143693</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.594207</v>
+        <v>0.59420700000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1319.210000</v>
+        <v>1319.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-690.571000</v>
+        <v>-690.57100000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>2150.292780</v>
+        <v>2150.2927800000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.597304</v>
+        <v>0.59730399999999995</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1452.630000</v>
+        <v>1452.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-906.549000</v>
+        <v>-906.54899999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>2161.948288</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.600541</v>
+        <v>0.60054099999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1804.840000</v>
+        <v>1804.84</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1419.330000</v>
+        <v>-1419.33</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>1990.333474</v>
       </c>
       <c r="B10" s="1">
-        <v>0.552870</v>
+        <v>0.55286999999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>896.895000</v>
+        <v>896.89499999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.178000</v>
+        <v>-202.178</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>2000.759413</v>
       </c>
       <c r="G10" s="1">
-        <v>0.555767</v>
+        <v>0.55576700000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>915.125000</v>
+        <v>915.125</v>
       </c>
       <c r="I10" s="1">
-        <v>-170.710000</v>
+        <v>-170.71</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2011.232406</v>
+        <v>2011.2324060000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.558676</v>
+        <v>0.55867599999999995</v>
       </c>
       <c r="M10" s="1">
-        <v>938.305000</v>
+        <v>938.30499999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.831000</v>
+        <v>-120.831</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2021.755176</v>
+        <v>2021.7551759999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.561599</v>
+        <v>0.56159899999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>945.110000</v>
+        <v>945.11</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.196000</v>
+        <v>-104.196</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>2032.623866</v>
+        <v>2032.6238659999999</v>
       </c>
       <c r="V10" s="1">
-        <v>0.564618</v>
+        <v>0.56461799999999995</v>
       </c>
       <c r="W10" s="1">
-        <v>951.885000</v>
+        <v>951.88499999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.047600</v>
+        <v>-88.047600000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>2043.100400</v>
+        <v>2043.1004</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.567528</v>
+        <v>0.56752800000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>958.985000</v>
+        <v>958.98500000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.148600</v>
+        <v>-76.148600000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>2053.318956</v>
+        <v>2053.3189560000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.570366</v>
+        <v>0.57036600000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>963.579000</v>
+        <v>963.57899999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-73.472700</v>
+        <v>-73.472700000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2063.501810</v>
+        <v>2063.5018100000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.573195</v>
+        <v>0.57319500000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>970.563000</v>
+        <v>970.56299999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-77.849100</v>
+        <v>-77.849100000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>2073.837443</v>
+        <v>2073.8374429999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.576066</v>
+        <v>0.57606599999999997</v>
       </c>
       <c r="AQ10" s="1">
-        <v>978.393000</v>
+        <v>978.39300000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-88.949500</v>
+        <v>-88.9495</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>2085.179000</v>
+        <v>2085.1790000000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.579216</v>
+        <v>0.57921599999999995</v>
       </c>
       <c r="AV10" s="1">
-        <v>987.939000</v>
+        <v>987.93899999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-106.025000</v>
+        <v>-106.02500000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>2095.937190</v>
+        <v>2095.9371900000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.582205</v>
+        <v>0.58220499999999997</v>
       </c>
       <c r="BA10" s="1">
-        <v>995.894000</v>
+        <v>995.89400000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-121.153000</v>
+        <v>-121.15300000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>2106.980120</v>
+        <v>2106.9801200000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.585272</v>
+        <v>0.58527200000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-191.306000</v>
+        <v>-191.30600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>2117.768105</v>
+        <v>2117.7681050000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.588269</v>
+        <v>0.58826900000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL10" s="1">
-        <v>-306.329000</v>
+        <v>-306.32900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>2128.710347</v>
+        <v>2128.7103470000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.591308</v>
+        <v>0.59130799999999994</v>
       </c>
       <c r="BP10" s="1">
-        <v>1200.790000</v>
+        <v>1200.79</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.226000</v>
+        <v>-489.226</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>2139.569757</v>
+        <v>2139.5697570000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.594325</v>
+        <v>0.59432499999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1319.280000</v>
+        <v>1319.28</v>
       </c>
       <c r="BV10" s="1">
-        <v>-690.683000</v>
+        <v>-690.68299999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>2150.723295</v>
+        <v>2150.7232949999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.597423</v>
+        <v>0.59742300000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1452.750000</v>
+        <v>1452.75</v>
       </c>
       <c r="CA10" s="1">
-        <v>-906.426000</v>
+        <v>-906.42600000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>2162.528078</v>
+        <v>2162.5280779999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.600702</v>
+        <v>0.60070199999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1805.570000</v>
+        <v>1805.57</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1420.380000</v>
+        <v>-1420.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>1990.677202</v>
+        <v>1990.6772020000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.552966</v>
+        <v>0.55296599999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>896.910000</v>
+        <v>896.91</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.210000</v>
+        <v>-202.21</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2001.109059</v>
+        <v>2001.1090589999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.555864</v>
+        <v>0.55586400000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>914.993000</v>
+        <v>914.99300000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.000000</v>
+        <v>-171</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>2011.587078</v>
       </c>
       <c r="L11" s="1">
-        <v>0.558774</v>
+        <v>0.55877399999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>938.414000</v>
+        <v>938.41399999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.871000</v>
+        <v>-120.871</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>2022.453927</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.561793</v>
+        <v>0.56179299999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>945.115000</v>
+        <v>945.11500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.165000</v>
+        <v>-104.16500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>2032.966105</v>
       </c>
       <c r="V11" s="1">
-        <v>0.564713</v>
+        <v>0.56471300000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>951.947000</v>
+        <v>951.947</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.079900</v>
+        <v>-88.079899999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>2043.449051</v>
+        <v>2043.4490510000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.567625</v>
+        <v>0.56762500000000005</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.034000</v>
+        <v>959.03399999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.235000</v>
+        <v>-76.234999999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>2053.663198</v>
+        <v>2053.6631980000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.570462</v>
+        <v>0.57046200000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>963.557000</v>
+        <v>963.55700000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-73.474100</v>
+        <v>-73.474100000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2064.144171</v>
+        <v>2064.1441709999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.573373</v>
+        <v>0.57337300000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>970.550000</v>
+        <v>970.55</v>
       </c>
       <c r="AM11" s="1">
-        <v>-77.860500</v>
+        <v>-77.860500000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>2074.502580</v>
+        <v>2074.5025799999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.576251</v>
+        <v>0.57625099999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>978.420000</v>
+        <v>978.42</v>
       </c>
       <c r="AR11" s="1">
-        <v>-88.950200</v>
+        <v>-88.950199999999995</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>2085.637299</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.579344</v>
+        <v>0.57934399999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>987.950000</v>
+        <v>987.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-106.019000</v>
+        <v>-106.01900000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>2096.368254</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.582325</v>
+        <v>0.58232499999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>995.876000</v>
+        <v>995.87599999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-121.174000</v>
+        <v>-121.17400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>2107.335751</v>
+        <v>2107.3357510000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.585371</v>
+        <v>0.58537099999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1032.810000</v>
+        <v>1032.81</v>
       </c>
       <c r="BG11" s="1">
-        <v>-191.331000</v>
+        <v>-191.33099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>2118.149564</v>
+        <v>2118.1495639999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.588375</v>
+        <v>0.58837499999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL11" s="1">
-        <v>-306.296000</v>
+        <v>-306.29599999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>2129.108138</v>
+        <v>2129.1081380000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.591419</v>
+        <v>0.59141900000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1200.790000</v>
+        <v>1200.79</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.229000</v>
+        <v>-489.22899999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>2139.981468</v>
+        <v>2139.9814679999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.594439</v>
+        <v>0.59443900000000005</v>
       </c>
       <c r="BU11" s="1">
-        <v>1319.350000</v>
+        <v>1319.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-690.658000</v>
+        <v>-690.65800000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>2151.142909</v>
+        <v>2151.1429090000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.597540</v>
+        <v>0.59753999999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1452.620000</v>
+        <v>1452.62</v>
       </c>
       <c r="CA11" s="1">
-        <v>-906.481000</v>
+        <v>-906.48099999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>2162.980454</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.600828</v>
+        <v>0.60082800000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>1805.240000</v>
+        <v>1805.24</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1420.200000</v>
+        <v>-1420.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>1991.017952</v>
+        <v>1991.0179519999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.553061</v>
+        <v>0.55306100000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>896.820000</v>
+        <v>896.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.324000</v>
+        <v>-202.32400000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>2001.806969</v>
       </c>
       <c r="G12" s="1">
-        <v>0.556057</v>
+        <v>0.55605700000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>915.127000</v>
+        <v>915.12699999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.012000</v>
+        <v>-171.012</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>2012.278006</v>
       </c>
       <c r="L12" s="1">
-        <v>0.558966</v>
+        <v>0.55896599999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>938.370000</v>
+        <v>938.37</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.797000</v>
+        <v>-120.797</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2022.806087</v>
+        <v>2022.8060869999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.561891</v>
+        <v>0.56189100000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>945.142000</v>
+        <v>945.14200000000005</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.171000</v>
+        <v>-104.17100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2033.305864</v>
+        <v>2033.3058639999999</v>
       </c>
       <c r="V12" s="1">
-        <v>0.564807</v>
+        <v>0.56480699999999995</v>
       </c>
       <c r="W12" s="1">
-        <v>951.946000</v>
+        <v>951.94600000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.094500</v>
+        <v>-88.094499999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>2043.799228</v>
+        <v>2043.7992280000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.567722</v>
+        <v>0.56772199999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>958.821000</v>
+        <v>958.82100000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.236100</v>
+        <v>-76.236099999999993</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2054.317389</v>
+        <v>2054.3173889999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.570644</v>
+        <v>0.57064400000000004</v>
       </c>
       <c r="AG12" s="1">
-        <v>963.576000</v>
+        <v>963.57600000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-73.503400</v>
+        <v>-73.503399999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2064.551358</v>
+        <v>2064.5513580000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.573486</v>
+        <v>0.57348600000000005</v>
       </c>
       <c r="AL12" s="1">
-        <v>970.569000</v>
+        <v>970.56899999999996</v>
       </c>
       <c r="AM12" s="1">
-        <v>-77.825900</v>
+        <v>-77.825900000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2074.951985</v>
+        <v>2074.9519850000001</v>
       </c>
       <c r="AP12" s="1">
         <v>0.576376</v>
       </c>
       <c r="AQ12" s="1">
-        <v>978.426000</v>
+        <v>978.42600000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-88.950800</v>
+        <v>-88.950800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>2086.002819</v>
+        <v>2086.0028189999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.579445</v>
+        <v>0.57944499999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>987.923000</v>
+        <v>987.923</v>
       </c>
       <c r="AW12" s="1">
-        <v>-106.017000</v>
+        <v>-106.017</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>2096.727813</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.582424</v>
+        <v>0.58242400000000005</v>
       </c>
       <c r="BA12" s="1">
-        <v>995.896000</v>
+        <v>995.89599999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-121.185000</v>
+        <v>-121.185</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>2107.703313</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.585473</v>
+        <v>0.58547300000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1032.790000</v>
+        <v>1032.79</v>
       </c>
       <c r="BG12" s="1">
-        <v>-191.354000</v>
+        <v>-191.35400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>2118.567667</v>
+        <v>2118.5676669999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.588491</v>
+        <v>0.58849099999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-306.327000</v>
+        <v>-306.327</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>2129.528252</v>
+        <v>2129.5282520000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.591536</v>
+        <v>0.59153599999999995</v>
       </c>
       <c r="BP12" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.222000</v>
+        <v>-489.22199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>2140.398075</v>
+        <v>2140.3980750000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.594555</v>
+        <v>0.59455499999999994</v>
       </c>
       <c r="BU12" s="1">
-        <v>1319.370000</v>
+        <v>1319.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-690.723000</v>
+        <v>-690.72299999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>2151.565004</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.597657</v>
+        <v>0.59765699999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1452.640000</v>
+        <v>1452.64</v>
       </c>
       <c r="CA12" s="1">
-        <v>-906.537000</v>
+        <v>-906.53700000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>2163.532509</v>
+        <v>2163.5325090000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.600981</v>
+        <v>0.60098099999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1804.830000</v>
+        <v>1804.83</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1419.550000</v>
+        <v>-1419.55</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>1991.699456</v>
+        <v>1991.6994560000001</v>
       </c>
       <c r="B13" s="1">
-        <v>0.553250</v>
+        <v>0.55325000000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>896.960000</v>
+        <v>896.96</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.287000</v>
+        <v>-202.28700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>2002.154659</v>
       </c>
       <c r="G13" s="1">
-        <v>0.556154</v>
+        <v>0.55615400000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>914.982000</v>
+        <v>914.98199999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.818000</v>
+        <v>-170.81800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>2012.624182</v>
       </c>
       <c r="L13" s="1">
-        <v>0.559062</v>
+        <v>0.55906199999999995</v>
       </c>
       <c r="M13" s="1">
-        <v>938.368000</v>
+        <v>938.36800000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.917000</v>
+        <v>-120.917</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>2023.152294</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.561987</v>
+        <v>0.56198700000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>945.157000</v>
+        <v>945.15700000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.208000</v>
+        <v>-104.208</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>2033.961576</v>
+        <v>2033.9615759999999</v>
       </c>
       <c r="V13" s="1">
-        <v>0.564989</v>
+        <v>0.56498899999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>951.889000</v>
+        <v>951.88900000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.127500</v>
+        <v>-88.127499999999998</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2044.445515</v>
+        <v>2044.4455149999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.567902</v>
+        <v>0.56790200000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>958.900000</v>
+        <v>958.9</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.184200</v>
+        <v>-76.184200000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2054.692894</v>
+        <v>2054.6928939999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.570748</v>
+        <v>0.57074800000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>963.574000</v>
+        <v>963.57399999999996</v>
       </c>
       <c r="AH13" s="1">
-        <v>-73.528800</v>
+        <v>-73.528800000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>2064.896063</v>
+        <v>2064.8960630000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.573582</v>
+        <v>0.57358200000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>970.568000</v>
+        <v>970.56799999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-77.870600</v>
+        <v>-77.870599999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>2075.311554</v>
+        <v>2075.3115539999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.576475</v>
+        <v>0.57647499999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>978.410000</v>
+        <v>978.41</v>
       </c>
       <c r="AR13" s="1">
-        <v>-88.962600</v>
+        <v>-88.962599999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>2086.363908</v>
+        <v>2086.3639079999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.579546</v>
+        <v>0.57954600000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>987.943000</v>
+        <v>987.94299999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>2097.282871</v>
+        <v>2097.2828709999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.582579</v>
+        <v>0.58257899999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>995.862000</v>
+        <v>995.86199999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-121.157000</v>
+        <v>-121.157</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>2108.117942</v>
+        <v>2108.1179419999999</v>
       </c>
       <c r="BE13" s="1">
         <v>0.585588</v>
       </c>
       <c r="BF13" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG13" s="1">
-        <v>-191.304000</v>
+        <v>-191.304</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>2118.902984</v>
+        <v>2118.9029839999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>0.588584</v>
       </c>
       <c r="BK13" s="1">
-        <v>1096.490000</v>
+        <v>1096.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-306.315000</v>
+        <v>-306.315</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>2129.926041</v>
+        <v>2129.9260410000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.591646</v>
+        <v>0.59164600000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1200.800000</v>
+        <v>1200.8</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.243000</v>
+        <v>-489.24299999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>2140.815210</v>
+        <v>2140.8152100000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.594671</v>
+        <v>0.59467099999999995</v>
       </c>
       <c r="BU13" s="1">
-        <v>1319.430000</v>
+        <v>1319.43</v>
       </c>
       <c r="BV13" s="1">
-        <v>-690.808000</v>
+        <v>-690.80799999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>2151.993557</v>
+        <v>2151.9935569999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.597776</v>
+        <v>0.59777599999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1452.620000</v>
+        <v>1452.62</v>
       </c>
       <c r="CA13" s="1">
-        <v>-906.561000</v>
+        <v>-906.56100000000004</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>2164.064188</v>
+        <v>2164.0641879999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.601129</v>
+        <v>0.60112900000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>1805.490000</v>
+        <v>1805.49</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1420.700000</v>
+        <v>-1420.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>1992.044202</v>
       </c>
@@ -3565,1902 +3981,1902 @@
         <v>0.553346</v>
       </c>
       <c r="C14" s="1">
-        <v>896.911000</v>
+        <v>896.91099999999994</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.209000</v>
+        <v>-202.209</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>2002.498849</v>
+        <v>2002.4988490000001</v>
       </c>
       <c r="G14" s="1">
-        <v>0.556250</v>
+        <v>0.55625000000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>914.972000</v>
+        <v>914.97199999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-170.927000</v>
+        <v>-170.92699999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>2012.972518</v>
       </c>
       <c r="L14" s="1">
-        <v>0.559159</v>
+        <v>0.55915899999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>938.384000</v>
+        <v>938.38400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.896000</v>
+        <v>-120.896</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>2023.802052</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.562167</v>
+        <v>0.56216699999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>945.169000</v>
+        <v>945.16899999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.215000</v>
+        <v>-104.215</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>2034.336055</v>
       </c>
       <c r="V14" s="1">
-        <v>0.565093</v>
+        <v>0.56509299999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>951.910000</v>
+        <v>951.91</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.088200</v>
+        <v>-88.088200000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>2044.844825</v>
+        <v>2044.8448249999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.568012</v>
+        <v>0.56801199999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>958.877000</v>
+        <v>958.87699999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.158900</v>
+        <v>-76.158900000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>2055.039068</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.570844</v>
+        <v>0.57084400000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>963.514000</v>
+        <v>963.51400000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-73.518000</v>
+        <v>-73.518000000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>2065.247231</v>
+        <v>2065.2472309999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.573680</v>
+        <v>0.57367999999999997</v>
       </c>
       <c r="AL14" s="1">
-        <v>970.564000</v>
+        <v>970.56399999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-77.833800</v>
+        <v>-77.833799999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>2075.671685</v>
+        <v>2075.6716849999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.576575</v>
+        <v>0.57657499999999995</v>
       </c>
       <c r="AQ14" s="1">
-        <v>978.399000</v>
+        <v>978.399</v>
       </c>
       <c r="AR14" s="1">
-        <v>-88.954600</v>
+        <v>-88.954599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>2086.781075</v>
+        <v>2086.7810749999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.579661</v>
+        <v>0.57966099999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>987.933000</v>
+        <v>987.93299999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-106.023000</v>
+        <v>-106.023</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>2097.466852</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.582630</v>
+        <v>0.58262999999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>995.860000</v>
+        <v>995.86</v>
       </c>
       <c r="BB14" s="1">
-        <v>-121.150000</v>
+        <v>-121.15</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>2108.424965</v>
+        <v>2108.4249650000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.585674</v>
+        <v>0.58567400000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG14" s="1">
-        <v>-191.333000</v>
+        <v>-191.333</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>2119.301240</v>
+        <v>2119.3012399999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.588695</v>
+        <v>0.58869499999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-306.304000</v>
+        <v>-306.30399999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>2130.346184</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.591763</v>
+        <v>0.59176300000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1200.790000</v>
+        <v>1200.79</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.244000</v>
+        <v>-489.24400000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>2141.226911</v>
+        <v>2141.2269110000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.594785</v>
+        <v>0.59478500000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1319.460000</v>
+        <v>1319.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-690.827000</v>
+        <v>-690.827</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>2152.410187</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.597892</v>
+        <v>0.59789199999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1452.750000</v>
+        <v>1452.75</v>
       </c>
       <c r="CA14" s="1">
-        <v>-906.567000</v>
+        <v>-906.56700000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>2164.580060</v>
+        <v>2164.5800599999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.601272</v>
+        <v>0.60127200000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1806.440000</v>
+        <v>1806.44</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1419.420000</v>
+        <v>-1419.42</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>1992.383440</v>
+        <v>1992.3834400000001</v>
       </c>
       <c r="B15" s="1">
-        <v>0.553440</v>
+        <v>0.55344000000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>896.899000</v>
+        <v>896.899</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.214000</v>
+        <v>-202.214</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2003.149601</v>
+        <v>2003.1496010000001</v>
       </c>
       <c r="G15" s="1">
-        <v>0.556430</v>
+        <v>0.55642999999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>915.097000</v>
+        <v>915.09699999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-170.777000</v>
+        <v>-170.77699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>2013.639987</v>
       </c>
       <c r="L15" s="1">
-        <v>0.559344</v>
+        <v>0.55934399999999995</v>
       </c>
       <c r="M15" s="1">
-        <v>938.300000</v>
+        <v>938.3</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.796000</v>
+        <v>-120.79600000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>2024.197333</v>
+        <v>2024.1973330000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.562277</v>
+        <v>0.56227700000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>945.120000</v>
+        <v>945.12</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.213000</v>
+        <v>-104.21299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2034.677836</v>
+        <v>2034.6778360000001</v>
       </c>
       <c r="V15" s="1">
-        <v>0.565188</v>
+        <v>0.56518800000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>951.890000</v>
+        <v>951.89</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.095200</v>
+        <v>-88.095200000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>2045.190532</v>
+        <v>2045.1905320000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.568108</v>
+        <v>0.56810799999999995</v>
       </c>
       <c r="AB15" s="1">
-        <v>958.828000</v>
+        <v>958.82799999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.274800</v>
+        <v>-76.274799999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>2055.382301</v>
+        <v>2055.3823010000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.570940</v>
+        <v>0.57094</v>
       </c>
       <c r="AG15" s="1">
-        <v>963.531000</v>
+        <v>963.53099999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-73.499000</v>
+        <v>-73.498999999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>2065.659439</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.573794</v>
+        <v>0.57379400000000003</v>
       </c>
       <c r="AL15" s="1">
-        <v>970.579000</v>
+        <v>970.57899999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-77.857600</v>
+        <v>-77.857600000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>2076.078865</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.576689</v>
+        <v>0.57668900000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>978.412000</v>
+        <v>978.41200000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-88.924000</v>
+        <v>-88.924000000000007</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>2087.095009</v>
+        <v>2087.0950090000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.579749</v>
+        <v>0.57974899999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>987.927000</v>
+        <v>987.92700000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-106.025000</v>
+        <v>-106.02500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>2097.825956</v>
+        <v>2097.8259560000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.582729</v>
+        <v>0.58272900000000005</v>
       </c>
       <c r="BA15" s="1">
-        <v>995.868000</v>
+        <v>995.86800000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-121.168000</v>
+        <v>-121.16800000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>2108.785590</v>
+        <v>2108.78559</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.585774</v>
+        <v>0.58577400000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG15" s="1">
-        <v>-191.343000</v>
+        <v>-191.34299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>2119.676712</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.588799</v>
+        <v>0.58879899999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL15" s="1">
-        <v>-306.349000</v>
+        <v>-306.34899999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>2131.162569</v>
+        <v>2131.1625690000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.591990</v>
+        <v>0.59199000000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.252000</v>
+        <v>-489.25200000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>2141.644522</v>
+        <v>2141.6445220000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.594901</v>
+        <v>0.59490100000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1319.450000</v>
+        <v>1319.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-690.867000</v>
+        <v>-690.86699999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>2152.857614</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.598016</v>
+        <v>0.59801599999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1452.570000</v>
+        <v>1452.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-906.430000</v>
+        <v>-906.43</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>2165.098347</v>
+        <v>2165.0983470000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.601416</v>
+        <v>0.60141599999999995</v>
       </c>
       <c r="CE15" s="1">
-        <v>1805.310000</v>
+        <v>1805.31</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1418.850000</v>
+        <v>-1418.85</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>1993.037166</v>
+        <v>1993.0371660000001</v>
       </c>
       <c r="B16" s="1">
-        <v>0.553621</v>
+        <v>0.55362100000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>896.909000</v>
+        <v>896.90899999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.145000</v>
+        <v>-202.14500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2003.534000</v>
+        <v>2003.5340000000001</v>
       </c>
       <c r="G16" s="1">
-        <v>0.556537</v>
+        <v>0.55653699999999995</v>
       </c>
       <c r="H16" s="1">
-        <v>915.111000</v>
+        <v>915.11099999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-170.822000</v>
+        <v>-170.822</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>2014.044227</v>
+        <v>2014.0442270000001</v>
       </c>
       <c r="L16" s="1">
-        <v>0.559457</v>
+        <v>0.55945699999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>938.419000</v>
+        <v>938.41899999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.697000</v>
+        <v>-120.697</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>2024.546020</v>
+        <v>2024.54602</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.562374</v>
+        <v>0.56237400000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>945.115000</v>
+        <v>945.11500000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.156000</v>
+        <v>-104.15600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2035.028968</v>
+        <v>2035.0289680000001</v>
       </c>
       <c r="V16" s="1">
-        <v>0.565286</v>
+        <v>0.56528599999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>951.828000</v>
+        <v>951.82799999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.029700</v>
+        <v>-88.029700000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>2045.541706</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.568206</v>
+        <v>0.56820599999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>958.910000</v>
+        <v>958.91</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.157900</v>
+        <v>-76.157899999999998</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>2055.793496</v>
+        <v>2055.7934959999998</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.571054</v>
+        <v>0.57105399999999995</v>
       </c>
       <c r="AG16" s="1">
-        <v>963.565000</v>
+        <v>963.56500000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-73.491900</v>
+        <v>-73.491900000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2065.952077</v>
+        <v>2065.9520769999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.573876</v>
+        <v>0.57387600000000005</v>
       </c>
       <c r="AL16" s="1">
-        <v>970.590000</v>
+        <v>970.59</v>
       </c>
       <c r="AM16" s="1">
-        <v>-77.827200</v>
+        <v>-77.827200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>2076.392367</v>
+        <v>2076.3923669999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.576776</v>
+        <v>0.57677599999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>978.408000</v>
+        <v>978.40800000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-88.947200</v>
+        <v>-88.947199999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>2087.459073</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.579850</v>
+        <v>0.57984999999999998</v>
       </c>
       <c r="AV16" s="1">
-        <v>987.960000</v>
+        <v>987.96</v>
       </c>
       <c r="AW16" s="1">
-        <v>-106.025000</v>
+        <v>-106.02500000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>2098.184564</v>
+        <v>2098.1845640000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.582829</v>
+        <v>0.58282900000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>995.862000</v>
+        <v>995.86199999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-121.169000</v>
+        <v>-121.169</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>2109.147379</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.585874</v>
+        <v>0.58587400000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG16" s="1">
-        <v>-191.318000</v>
+        <v>-191.31800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>2120.429142</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.589008</v>
+        <v>0.58900799999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL16" s="1">
-        <v>-306.337000</v>
+        <v>-306.33699999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>2131.583672</v>
+        <v>2131.5836720000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.592107</v>
+        <v>0.59210700000000005</v>
       </c>
       <c r="BP16" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.233000</v>
+        <v>-489.233</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>2142.059177</v>
+        <v>2142.0591770000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.595016</v>
+        <v>0.59501599999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1319.480000</v>
+        <v>1319.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-690.927000</v>
+        <v>-690.92700000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>2153.276927</v>
+        <v>2153.2769269999999</v>
       </c>
       <c r="BY16" s="1">
         <v>0.598132</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1452.590000</v>
+        <v>1452.59</v>
       </c>
       <c r="CA16" s="1">
-        <v>-906.581000</v>
+        <v>-906.58100000000002</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>2165.919257</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.601644</v>
+        <v>0.60164399999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>1804.900000</v>
+        <v>1804.9</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1420.140000</v>
+        <v>-1420.14</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>1993.409197</v>
+        <v>1993.4091969999999</v>
       </c>
       <c r="B17" s="1">
-        <v>0.553725</v>
+        <v>0.55372500000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>896.859000</v>
+        <v>896.85900000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.281000</v>
+        <v>-202.28100000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2003.877231</v>
+        <v>2003.8772309999999</v>
       </c>
       <c r="G17" s="1">
-        <v>0.556633</v>
+        <v>0.55663300000000004</v>
       </c>
       <c r="H17" s="1">
-        <v>914.960000</v>
+        <v>914.96</v>
       </c>
       <c r="I17" s="1">
-        <v>-170.887000</v>
+        <v>-170.887</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>2014.352738</v>
       </c>
       <c r="L17" s="1">
-        <v>0.559542</v>
+        <v>0.55954199999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>938.430000</v>
+        <v>938.43</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.892000</v>
+        <v>-120.892</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>2024.894735</v>
+        <v>2024.8947350000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.562471</v>
+        <v>0.56247100000000005</v>
       </c>
       <c r="R17" s="1">
-        <v>945.143000</v>
+        <v>945.14300000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.192000</v>
+        <v>-104.19199999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>2035.441174</v>
       </c>
       <c r="V17" s="1">
-        <v>0.565400</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>951.896000</v>
+        <v>951.89599999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.064600</v>
+        <v>-88.064599999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>2045.969226</v>
+        <v>2045.9692259999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.568325</v>
+        <v>0.56832499999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>958.825000</v>
+        <v>958.82500000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.240800</v>
+        <v>-76.240799999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>2056.092106</v>
+        <v>2056.0921060000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.571137</v>
+        <v>0.57113700000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>963.575000</v>
+        <v>963.57500000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-73.493600</v>
+        <v>-73.493600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2066.303247</v>
+        <v>2066.3032469999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.573973</v>
+        <v>0.57397299999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>970.578000</v>
+        <v>970.57799999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-77.847300</v>
+        <v>-77.847300000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>2076.751471</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.576875</v>
+        <v>0.57687500000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>978.372000</v>
+        <v>978.37199999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-88.944500</v>
+        <v>-88.944500000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>2087.820656</v>
+        <v>2087.8206559999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.579950</v>
+        <v>0.57994999999999997</v>
       </c>
       <c r="AV17" s="1">
-        <v>987.934000</v>
+        <v>987.93399999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-106.031000</v>
+        <v>-106.03100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>2098.904786</v>
+        <v>2098.9047860000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.583029</v>
+        <v>0.58302900000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>995.865000</v>
+        <v>995.86500000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-121.167000</v>
+        <v>-121.167</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>2109.866835</v>
+        <v>2109.8668349999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.586074</v>
+        <v>0.58607399999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG17" s="1">
-        <v>-191.311000</v>
+        <v>-191.31100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>2120.803654</v>
+        <v>2120.8036539999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.589112</v>
+        <v>0.58911199999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL17" s="1">
-        <v>-306.323000</v>
+        <v>-306.32299999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>2131.981500</v>
+        <v>2131.9814999999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.592217</v>
+        <v>0.59221699999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1200.830000</v>
+        <v>1200.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.242000</v>
+        <v>-489.24200000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>2142.473833</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.595132</v>
+        <v>0.59513199999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1319.510000</v>
+        <v>1319.51</v>
       </c>
       <c r="BV17" s="1">
-        <v>-690.970000</v>
+        <v>-690.97</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>2154.002378</v>
+        <v>2154.0023780000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.598334</v>
+        <v>0.59833400000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1452.650000</v>
+        <v>1452.65</v>
       </c>
       <c r="CA17" s="1">
-        <v>-906.535000</v>
+        <v>-906.53499999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>2166.133994</v>
+        <v>2166.1339939999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.601704</v>
+        <v>0.60170400000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1806.010000</v>
+        <v>1806.01</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1420.380000</v>
+        <v>-1420.38</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>1993.751438</v>
       </c>
       <c r="B18" s="1">
-        <v>0.553820</v>
+        <v>0.55381999999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>896.880000</v>
+        <v>896.88</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.140000</v>
+        <v>-202.14</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>2004.223450</v>
+        <v>2004.22345</v>
       </c>
       <c r="G18" s="1">
-        <v>0.556729</v>
+        <v>0.55672900000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>914.952000</v>
+        <v>914.952</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.680000</v>
+        <v>-170.68</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>2014.768386</v>
       </c>
       <c r="L18" s="1">
-        <v>0.559658</v>
+        <v>0.55965799999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>938.403000</v>
+        <v>938.40300000000002</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.819000</v>
+        <v>-120.819</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2025.321458</v>
+        <v>2025.3214579999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.562589</v>
+        <v>0.56258900000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>945.177000</v>
+        <v>945.17700000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.187000</v>
+        <v>-104.187</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>2035.740764</v>
+        <v>2035.7407639999999</v>
       </c>
       <c r="V18" s="1">
-        <v>0.565484</v>
+        <v>0.56548399999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>951.900000</v>
+        <v>951.9</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.126200</v>
+        <v>-88.126199999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>2046.248968</v>
+        <v>2046.2489680000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.568402</v>
+        <v>0.56840199999999996</v>
       </c>
       <c r="AB18" s="1">
-        <v>958.911000</v>
+        <v>958.91099999999994</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.197500</v>
+        <v>-76.197500000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>2056.433851</v>
+        <v>2056.4338509999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.571232</v>
+        <v>0.57123199999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>963.568000</v>
+        <v>963.56799999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-73.483900</v>
+        <v>-73.483900000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>2066.649918</v>
+        <v>2066.6499180000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.574069</v>
+        <v>0.57406900000000005</v>
       </c>
       <c r="AL18" s="1">
-        <v>970.572000</v>
+        <v>970.572</v>
       </c>
       <c r="AM18" s="1">
-        <v>-77.830600</v>
+        <v>-77.830600000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>2077.112528</v>
+        <v>2077.1125280000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.576976</v>
+        <v>0.57697600000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>978.434000</v>
+        <v>978.43399999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-88.961000</v>
+        <v>-88.960999999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>2088.553743</v>
+        <v>2088.5537429999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.580154</v>
+        <v>0.58015399999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>987.946000</v>
+        <v>987.94600000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-106.010000</v>
+        <v>-106.01</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>2099.258403</v>
+        <v>2099.2584029999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.583127</v>
+        <v>0.58312699999999995</v>
       </c>
       <c r="BA18" s="1">
-        <v>995.845000</v>
+        <v>995.84500000000003</v>
       </c>
       <c r="BB18" s="1">
-        <v>-121.176000</v>
+        <v>-121.176</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>2110.255235</v>
+        <v>2110.2552350000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.586182</v>
+        <v>0.58618199999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG18" s="1">
-        <v>-191.308000</v>
+        <v>-191.30799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>2121.179606</v>
+        <v>2121.1796060000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.589217</v>
+        <v>0.58921699999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL18" s="1">
-        <v>-306.343000</v>
+        <v>-306.34300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>2132.710614</v>
+        <v>2132.7106140000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.592420</v>
+        <v>0.59241999999999995</v>
       </c>
       <c r="BP18" s="1">
-        <v>1200.820000</v>
+        <v>1200.82</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.196000</v>
+        <v>-489.19600000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>2143.194291</v>
+        <v>2143.1942909999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.595332</v>
+        <v>0.59533199999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1319.470000</v>
+        <v>1319.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-691.099000</v>
+        <v>-691.09900000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>2154.180906</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.598384</v>
+        <v>0.59838400000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1452.640000</v>
+        <v>1452.64</v>
       </c>
       <c r="CA18" s="1">
-        <v>-906.531000</v>
+        <v>-906.53099999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>2166.652339</v>
+        <v>2166.6523390000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.601848</v>
+        <v>0.60184800000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>1806.350000</v>
+        <v>1806.35</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1420.310000</v>
+        <v>-1420.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>1994.095132</v>
+        <v>1994.0951319999999</v>
       </c>
       <c r="B19" s="1">
-        <v>0.553915</v>
+        <v>0.55391500000000005</v>
       </c>
       <c r="C19" s="1">
-        <v>896.926000</v>
+        <v>896.92600000000004</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.216000</v>
+        <v>-202.21600000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2004.640575</v>
+        <v>2004.6405749999999</v>
       </c>
       <c r="G19" s="1">
-        <v>0.556845</v>
+        <v>0.55684500000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>914.914000</v>
+        <v>914.91399999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.006000</v>
+        <v>-171.006</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2015.046672</v>
+        <v>2015.0466719999999</v>
       </c>
       <c r="L19" s="1">
-        <v>0.559735</v>
+        <v>0.55973499999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>938.305000</v>
+        <v>938.30499999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.782000</v>
+        <v>-120.782</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>2025.594067</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.562665</v>
+        <v>0.56266499999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>945.198000</v>
+        <v>945.19799999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.183000</v>
+        <v>-104.18300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>2036.082965</v>
+        <v>2036.0829650000001</v>
       </c>
       <c r="V19" s="1">
-        <v>0.565579</v>
+        <v>0.56557900000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>951.912000</v>
+        <v>951.91200000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.124000</v>
+        <v>-88.123999999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>2046.593725</v>
+        <v>2046.5937249999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.568498</v>
+        <v>0.56849799999999995</v>
       </c>
       <c r="AB19" s="1">
-        <v>958.908000</v>
+        <v>958.90800000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-75.878900</v>
+        <v>-75.878900000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>2056.780058</v>
+        <v>2056.7800579999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.571328</v>
+        <v>0.57132799999999995</v>
       </c>
       <c r="AG19" s="1">
-        <v>963.535000</v>
+        <v>963.53499999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-73.493600</v>
+        <v>-73.493600000000001</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>2067.348285</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.574263</v>
+        <v>0.57426299999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>970.584000</v>
+        <v>970.58399999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-77.861500</v>
+        <v>-77.861500000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>2077.840159</v>
+        <v>2077.8401589999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.577178</v>
+        <v>0.57717799999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>978.400000</v>
+        <v>978.4</v>
       </c>
       <c r="AR19" s="1">
-        <v>-88.946700</v>
+        <v>-88.946700000000007</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>2088.941648</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.580262</v>
+        <v>0.58026200000000006</v>
       </c>
       <c r="AV19" s="1">
-        <v>987.933000</v>
+        <v>987.93299999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-106.022000</v>
+        <v>-106.02200000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>2099.618033</v>
+        <v>2099.6180330000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.583227</v>
+        <v>0.58322700000000005</v>
       </c>
       <c r="BA19" s="1">
-        <v>995.858000</v>
+        <v>995.85799999999995</v>
       </c>
       <c r="BB19" s="1">
-        <v>-121.180000</v>
+        <v>-121.18</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>2110.638114</v>
+        <v>2110.6381139999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.586288</v>
+        <v>0.58628800000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG19" s="1">
-        <v>-191.333000</v>
+        <v>-191.333</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>2121.866052</v>
+        <v>2121.8660519999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.589407</v>
+        <v>0.58940700000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1096.500000</v>
+        <v>1096.5</v>
       </c>
       <c r="BL19" s="1">
-        <v>-306.357000</v>
+        <v>-306.35700000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>2132.824198</v>
+        <v>2132.8241979999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.592451</v>
+        <v>0.59245099999999995</v>
       </c>
       <c r="BP19" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.239000</v>
+        <v>-489.23899999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>2143.305656</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.595363</v>
+        <v>0.59536299999999998</v>
       </c>
       <c r="BU19" s="1">
-        <v>1319.490000</v>
+        <v>1319.49</v>
       </c>
       <c r="BV19" s="1">
-        <v>-691.126000</v>
+        <v>-691.12599999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>2154.607464</v>
+        <v>2154.6074640000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.598502</v>
+        <v>0.59850199999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1452.610000</v>
+        <v>1452.61</v>
       </c>
       <c r="CA19" s="1">
-        <v>-906.470000</v>
+        <v>-906.47</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>2167.200888</v>
+        <v>2167.2008879999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.602000</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1805.320000</v>
+        <v>1805.32</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1420.600000</v>
+        <v>-1420.6</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>1994.515244</v>
+        <v>1994.5152439999999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.554032</v>
+        <v>0.55403199999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>896.900000</v>
+        <v>896.9</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.183000</v>
+        <v>-202.18299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>2004.931753</v>
+        <v>2004.9317530000001</v>
       </c>
       <c r="G20" s="1">
         <v>0.556925</v>
       </c>
       <c r="H20" s="1">
-        <v>914.919000</v>
+        <v>914.91899999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-170.770000</v>
+        <v>-170.77</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>2015.392848</v>
       </c>
       <c r="L20" s="1">
-        <v>0.559831</v>
+        <v>0.55983099999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>938.264000</v>
+        <v>938.26400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.915000</v>
+        <v>-120.91500000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>2025.940807</v>
+        <v>2025.9408069999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.562761</v>
+        <v>0.56276099999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>945.159000</v>
+        <v>945.15899999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.225000</v>
+        <v>-104.22499999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>2036.427717</v>
       </c>
       <c r="V20" s="1">
-        <v>0.565674</v>
+        <v>0.56567400000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>951.928000</v>
+        <v>951.928</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.061700</v>
+        <v>-88.061700000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>2047.259814</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.568683</v>
+        <v>0.56868300000000005</v>
       </c>
       <c r="AB20" s="1">
-        <v>958.969000</v>
+        <v>958.96900000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-75.846300</v>
+        <v>-75.846299999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>2057.466489</v>
+        <v>2057.4664889999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.571518</v>
+        <v>0.57151799999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>963.507000</v>
+        <v>963.50699999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-73.485100</v>
+        <v>-73.485100000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>2067.694029</v>
+        <v>2067.6940289999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.574359</v>
+        <v>0.57435899999999995</v>
       </c>
       <c r="AL20" s="1">
-        <v>970.576000</v>
+        <v>970.57600000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-77.853500</v>
+        <v>-77.853499999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>2078.220590</v>
+        <v>2078.2205899999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.577283</v>
+        <v>0.57728299999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>978.402000</v>
+        <v>978.40200000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-88.933700</v>
+        <v>-88.933700000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>2089.306209</v>
+        <v>2089.3062089999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.580363</v>
+        <v>0.58036299999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>987.948000</v>
+        <v>987.94799999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-106.037000</v>
+        <v>-106.03700000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>2100.281661</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.583412</v>
+        <v>0.58341200000000004</v>
       </c>
       <c r="BA20" s="1">
-        <v>995.861000</v>
+        <v>995.86099999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-121.162000</v>
+        <v>-121.16200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>2111.304243</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.586473</v>
+        <v>0.58647300000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG20" s="1">
-        <v>-191.321000</v>
+        <v>-191.321</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>2122.303555</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.589529</v>
+        <v>0.58952899999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL20" s="1">
-        <v>-306.359000</v>
+        <v>-306.35899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>2133.223974</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.592562</v>
+        <v>0.59256200000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1200.810000</v>
+        <v>1200.81</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.254000</v>
+        <v>-489.25400000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>2143.740647</v>
+        <v>2143.7406470000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.595484</v>
+        <v>0.59548400000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1319.440000</v>
+        <v>1319.44</v>
       </c>
       <c r="BV20" s="1">
-        <v>-691.159000</v>
+        <v>-691.15899999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>2155.055848</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.598627</v>
+        <v>0.59862700000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1452.550000</v>
+        <v>1452.55</v>
       </c>
       <c r="CA20" s="1">
-        <v>-906.536000</v>
+        <v>-906.53599999999994</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>2167.731146</v>
+        <v>2167.7311460000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.602148</v>
+        <v>0.60214800000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1806.490000</v>
+        <v>1806.49</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1419.930000</v>
+        <v>-1419.93</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>1994.793532</v>
+        <v>1994.7935319999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.554109</v>
+        <v>0.55410899999999996</v>
       </c>
       <c r="C21" s="1">
-        <v>896.862000</v>
+        <v>896.86199999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.228000</v>
+        <v>-202.22800000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>2005.277935</v>
+        <v>2005.2779350000001</v>
       </c>
       <c r="G21" s="1">
-        <v>0.557022</v>
+        <v>0.55702200000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>914.822000</v>
+        <v>914.822</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.937000</v>
+        <v>-170.93700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>2015.737599</v>
       </c>
       <c r="L21" s="1">
-        <v>0.559927</v>
+        <v>0.55992699999999995</v>
       </c>
       <c r="M21" s="1">
-        <v>938.357000</v>
+        <v>938.35699999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.959000</v>
+        <v>-120.959</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>2026.288963</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.562858</v>
+        <v>0.56285799999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>945.097000</v>
+        <v>945.09699999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.191000</v>
+        <v>-104.191</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>2037.112659</v>
+        <v>2037.1126589999999</v>
       </c>
       <c r="V21" s="1">
-        <v>0.565865</v>
+        <v>0.56586499999999995</v>
       </c>
       <c r="W21" s="1">
-        <v>951.859000</v>
+        <v>951.85900000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.104400</v>
+        <v>-88.104399999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>2047.642726</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.568790</v>
+        <v>0.56879000000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>958.955000</v>
+        <v>958.95500000000004</v>
       </c>
       <c r="AC21" s="1">
-        <v>-75.828800</v>
+        <v>-75.828800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>2057.810714</v>
+        <v>2057.8107140000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.571614</v>
+        <v>0.57161399999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>963.534000</v>
+        <v>963.53399999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-73.489800</v>
+        <v>-73.489800000000002</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>2068.046155</v>
@@ -5469,165 +5885,165 @@
         <v>0.574457</v>
       </c>
       <c r="AL21" s="1">
-        <v>970.590000</v>
+        <v>970.59</v>
       </c>
       <c r="AM21" s="1">
-        <v>-77.861700</v>
+        <v>-77.861699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>2078.578205</v>
+        <v>2078.5782049999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.577383</v>
+        <v>0.57738299999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>978.426000</v>
+        <v>978.42600000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-88.940300</v>
+        <v>-88.940299999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>2089.973334</v>
+        <v>2089.9733339999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.580548</v>
+        <v>0.58054799999999995</v>
       </c>
       <c r="AV21" s="1">
-        <v>987.956000</v>
+        <v>987.95600000000002</v>
       </c>
       <c r="AW21" s="1">
-        <v>-106.028000</v>
+        <v>-106.02800000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>2100.728543</v>
+        <v>2100.7285430000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.583536</v>
+        <v>0.58353600000000005</v>
       </c>
       <c r="BA21" s="1">
-        <v>995.883000</v>
+        <v>995.88300000000004</v>
       </c>
       <c r="BB21" s="1">
-        <v>-121.176000</v>
+        <v>-121.176</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>2111.721377</v>
+        <v>2111.7213769999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.586589</v>
+        <v>0.58658900000000003</v>
       </c>
       <c r="BF21" s="1">
-        <v>1032.830000</v>
+        <v>1032.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-191.314000</v>
+        <v>-191.31399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>2122.680483</v>
+        <v>2122.6804830000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.589633</v>
+        <v>0.58963299999999996</v>
       </c>
       <c r="BK21" s="1">
-        <v>1096.510000</v>
+        <v>1096.51</v>
       </c>
       <c r="BL21" s="1">
-        <v>-306.353000</v>
+        <v>-306.35300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>2133.646038</v>
+        <v>2133.6460379999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.592679</v>
+        <v>0.59267899999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1200.810000</v>
+        <v>1200.81</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.269000</v>
+        <v>-489.26900000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>2144.154312</v>
+        <v>2144.1543120000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.595598</v>
+        <v>0.59559799999999996</v>
       </c>
       <c r="BU21" s="1">
-        <v>1319.340000</v>
+        <v>1319.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-691.152000</v>
+        <v>-691.15200000000004</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>2155.484896</v>
+        <v>2155.4848959999999</v>
       </c>
       <c r="BY21" s="1">
         <v>0.598746</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1452.740000</v>
+        <v>1452.74</v>
       </c>
       <c r="CA21" s="1">
-        <v>-906.527000</v>
+        <v>-906.52700000000004</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>2168.249928</v>
+        <v>2168.2499280000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.602292</v>
+        <v>0.60229200000000005</v>
       </c>
       <c r="CE21" s="1">
-        <v>1805.210000</v>
+        <v>1805.21</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1418.970000</v>
+        <v>-1418.97</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>1995.138715</v>
       </c>
       <c r="B22" s="1">
-        <v>0.554205</v>
+        <v>0.55420499999999995</v>
       </c>
       <c r="C22" s="1">
-        <v>896.844000</v>
+        <v>896.84400000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.181000</v>
+        <v>-202.18100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>2005.624143</v>
@@ -5636,28 +6052,28 @@
         <v>0.557118</v>
       </c>
       <c r="H22" s="1">
-        <v>915.063000</v>
+        <v>915.06299999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.007000</v>
+        <v>-171.00700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>2016.429985</v>
       </c>
       <c r="L22" s="1">
-        <v>0.560119</v>
+        <v>0.56011900000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>938.330000</v>
+        <v>938.33</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.800000</v>
+        <v>-120.8</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>2026.985874</v>
@@ -5666,28 +6082,28 @@
         <v>0.563052</v>
       </c>
       <c r="R22" s="1">
-        <v>945.133000</v>
+        <v>945.13300000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.170000</v>
+        <v>-104.17</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>2037.457907</v>
       </c>
       <c r="V22" s="1">
-        <v>0.565961</v>
+        <v>0.56596100000000005</v>
       </c>
       <c r="W22" s="1">
-        <v>951.832000</v>
+        <v>951.83199999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.053700</v>
+        <v>-88.053700000000006</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>2047.989926</v>
@@ -5696,240 +6112,240 @@
         <v>0.568886</v>
       </c>
       <c r="AB22" s="1">
-        <v>958.938000</v>
+        <v>958.93799999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-75.833200</v>
+        <v>-75.833200000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>2058.152952</v>
+        <v>2058.1529519999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.571709</v>
+        <v>0.57170900000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>963.560000</v>
+        <v>963.56</v>
       </c>
       <c r="AH22" s="1">
-        <v>-73.495800</v>
+        <v>-73.495800000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2068.695914</v>
+        <v>2068.6959139999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.574638</v>
+        <v>0.57463799999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>970.574000</v>
+        <v>970.57399999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-77.868100</v>
+        <v>-77.868099999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>2079.259709</v>
+        <v>2079.2597089999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.577572</v>
+        <v>0.57757199999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>978.424000</v>
+        <v>978.42399999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-88.976300</v>
+        <v>-88.976299999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>2090.436061</v>
+        <v>2090.4360609999999</v>
       </c>
       <c r="AU22" s="1">
         <v>0.580677</v>
       </c>
       <c r="AV22" s="1">
-        <v>987.931000</v>
+        <v>987.93100000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-105.992000</v>
+        <v>-105.992</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>2101.086160</v>
+        <v>2101.0861599999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.583635</v>
+        <v>0.58363500000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>995.847000</v>
+        <v>995.84699999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-121.163000</v>
+        <v>-121.163</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>2112.111270</v>
+        <v>2112.1112699999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.586698</v>
+        <v>0.58669800000000005</v>
       </c>
       <c r="BF22" s="1">
-        <v>1032.820000</v>
+        <v>1032.82</v>
       </c>
       <c r="BG22" s="1">
-        <v>-191.329000</v>
+        <v>-191.32900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>2123.054964</v>
+        <v>2123.0549639999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.589737</v>
+        <v>0.58973699999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1096.480000</v>
+        <v>1096.48</v>
       </c>
       <c r="BL22" s="1">
-        <v>-306.349000</v>
+        <v>-306.34899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>2134.061189</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.592795</v>
+        <v>0.59279499999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1200.750000</v>
+        <v>1200.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.268000</v>
+        <v>-489.26799999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>2144.568933</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.595714</v>
+        <v>0.59571399999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>1319.340000</v>
+        <v>1319.34</v>
       </c>
       <c r="BV22" s="1">
-        <v>-691.214000</v>
+        <v>-691.21400000000006</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>2155.907975</v>
+        <v>2155.9079750000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.598863</v>
+        <v>0.59886300000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1452.660000</v>
+        <v>1452.66</v>
       </c>
       <c r="CA22" s="1">
-        <v>-906.456000</v>
+        <v>-906.45600000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>2168.789587</v>
+        <v>2168.7895870000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.602442</v>
+        <v>0.60244200000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>1805.310000</v>
+        <v>1805.31</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1420.500000</v>
+        <v>-1420.5</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>1995.476987</v>
       </c>
       <c r="B23" s="1">
-        <v>0.554299</v>
+        <v>0.55429899999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>897.017000</v>
+        <v>897.01700000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.272000</v>
+        <v>-202.27199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2006.311609</v>
+        <v>2006.3116090000001</v>
       </c>
       <c r="G23" s="1">
-        <v>0.557309</v>
+        <v>0.55730900000000005</v>
       </c>
       <c r="H23" s="1">
-        <v>914.763000</v>
+        <v>914.76300000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-170.581000</v>
+        <v>-170.58099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2016.779167</v>
+        <v>2016.7791669999999</v>
       </c>
       <c r="L23" s="1">
-        <v>0.560216</v>
+        <v>0.56021600000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>938.322000</v>
+        <v>938.322</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.817000</v>
+        <v>-120.81699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>2027.333563</v>
+        <v>2027.3335629999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.563148</v>
+        <v>0.56314799999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>945.149000</v>
+        <v>945.149</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.158000</v>
+        <v>-104.158</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>2037.800612</v>
@@ -5938,405 +6354,405 @@
         <v>0.566056</v>
       </c>
       <c r="W23" s="1">
-        <v>951.900000</v>
+        <v>951.9</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.124100</v>
+        <v>-88.124099999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>2048.642166</v>
+        <v>2048.6421660000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.569067</v>
+        <v>0.56906699999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>958.910000</v>
+        <v>958.91</v>
       </c>
       <c r="AC23" s="1">
-        <v>-75.829200</v>
+        <v>-75.8292</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>2058.803703</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.571890</v>
+        <v>0.57189000000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>963.522000</v>
+        <v>963.52200000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-73.492000</v>
+        <v>-73.492000000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2069.090761</v>
+        <v>2069.0907609999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.574747</v>
+        <v>0.57474700000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>970.586000</v>
+        <v>970.58600000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-77.834400</v>
+        <v>-77.834400000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>2079.659483</v>
+        <v>2079.6594829999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.577683</v>
+        <v>0.57768299999999995</v>
       </c>
       <c r="AQ23" s="1">
-        <v>978.415000</v>
+        <v>978.41499999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-88.936300</v>
+        <v>-88.936300000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>2090.798150</v>
+        <v>2090.7981500000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.580777</v>
+        <v>0.58077699999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>987.957000</v>
+        <v>987.95699999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-106.018000</v>
+        <v>-106.018</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>2101.446751</v>
+        <v>2101.4467509999999</v>
       </c>
       <c r="AZ23" s="1">
         <v>0.583735</v>
       </c>
       <c r="BA23" s="1">
-        <v>995.853000</v>
+        <v>995.85299999999995</v>
       </c>
       <c r="BB23" s="1">
-        <v>-121.156000</v>
+        <v>-121.15600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>2112.473808</v>
+        <v>2112.4738080000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.586798</v>
+        <v>0.58679800000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1032.810000</v>
+        <v>1032.81</v>
       </c>
       <c r="BG23" s="1">
-        <v>-191.312000</v>
+        <v>-191.31200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>2123.481026</v>
+        <v>2123.4810259999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.589856</v>
+        <v>0.58985600000000005</v>
       </c>
       <c r="BK23" s="1">
-        <v>1096.520000</v>
+        <v>1096.52</v>
       </c>
       <c r="BL23" s="1">
-        <v>-306.340000</v>
+        <v>-306.33999999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>2134.468404</v>
+        <v>2134.4684040000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.592908</v>
+        <v>0.59290799999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.261000</v>
+        <v>-489.26100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>2144.984087</v>
+        <v>2144.9840869999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.595829</v>
+        <v>0.59582900000000005</v>
       </c>
       <c r="BU23" s="1">
-        <v>1319.320000</v>
+        <v>1319.32</v>
       </c>
       <c r="BV23" s="1">
-        <v>-691.248000</v>
+        <v>-691.24800000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>2156.330566</v>
+        <v>2156.3305660000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.598981</v>
+        <v>0.59898099999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1452.630000</v>
+        <v>1452.63</v>
       </c>
       <c r="CA23" s="1">
-        <v>-906.460000</v>
+        <v>-906.46</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>2169.331205</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.602592</v>
+        <v>0.60259200000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1805.880000</v>
+        <v>1805.88</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1419.070000</v>
+        <v>-1419.07</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>1996.163450</v>
+        <v>1996.16345</v>
       </c>
       <c r="B24" s="1">
-        <v>0.554490</v>
+        <v>0.55449000000000004</v>
       </c>
       <c r="C24" s="1">
-        <v>896.951000</v>
+        <v>896.95100000000002</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.179000</v>
+        <v>-202.179</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>2006.656466</v>
+        <v>2006.6564659999999</v>
       </c>
       <c r="G24" s="1">
-        <v>0.557405</v>
+        <v>0.55740500000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>914.920000</v>
+        <v>914.92</v>
       </c>
       <c r="I24" s="1">
-        <v>-170.763000</v>
+        <v>-170.76300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2017.124878</v>
+        <v>2017.1248780000001</v>
       </c>
       <c r="L24" s="1">
-        <v>0.560312</v>
+        <v>0.56031200000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>938.397000</v>
+        <v>938.39700000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.843000</v>
+        <v>-120.843</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2027.683250</v>
+        <v>2027.68325</v>
       </c>
       <c r="Q24" s="1">
         <v>0.563245</v>
       </c>
       <c r="R24" s="1">
-        <v>945.144000</v>
+        <v>945.14400000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.171000</v>
+        <v>-104.17100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>2038.453845</v>
       </c>
       <c r="V24" s="1">
-        <v>0.566237</v>
+        <v>0.56623699999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>951.868000</v>
+        <v>951.86800000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.036600</v>
+        <v>-88.036600000000007</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>2049.035498</v>
+        <v>2049.0354980000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.569177</v>
+        <v>0.56917700000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>958.924000</v>
+        <v>958.92399999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-75.900000</v>
+        <v>-75.900000000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>2059.185194</v>
+        <v>2059.1851940000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.571996</v>
+        <v>0.57199599999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>963.525000</v>
+        <v>963.52499999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-73.490700</v>
+        <v>-73.490700000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2069.440905</v>
+        <v>2069.4409049999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.574845</v>
+        <v>0.57484500000000005</v>
       </c>
       <c r="AL24" s="1">
-        <v>970.591000</v>
+        <v>970.59100000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-77.839000</v>
+        <v>-77.838999999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>2080.137133</v>
+        <v>2080.1371330000002</v>
       </c>
       <c r="AP24" s="1">
         <v>0.577816</v>
       </c>
       <c r="AQ24" s="1">
-        <v>978.415000</v>
+        <v>978.41499999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-88.956300</v>
+        <v>-88.956299999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>2091.162702</v>
+        <v>2091.1627020000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.580879</v>
+        <v>0.58087900000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>987.949000</v>
+        <v>987.94899999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-106.016000</v>
+        <v>-106.01600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>2101.867886</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.583852</v>
+        <v>0.58385200000000004</v>
       </c>
       <c r="BA24" s="1">
-        <v>995.865000</v>
+        <v>995.86500000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-121.163000</v>
+        <v>-121.163</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>2112.889951</v>
+        <v>2112.8899510000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.586914</v>
+        <v>0.58691400000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1032.790000</v>
+        <v>1032.79</v>
       </c>
       <c r="BG24" s="1">
-        <v>-191.313000</v>
+        <v>-191.31299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>2123.812849</v>
+        <v>2123.8128489999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.589948</v>
+        <v>0.58994800000000003</v>
       </c>
       <c r="BK24" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL24" s="1">
-        <v>-306.351000</v>
+        <v>-306.351</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>2134.864247</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.593018</v>
+        <v>0.59301800000000005</v>
       </c>
       <c r="BP24" s="1">
-        <v>1200.780000</v>
+        <v>1200.78</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.232000</v>
+        <v>-489.23200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>2145.396299</v>
@@ -6345,559 +6761,560 @@
         <v>0.595943</v>
       </c>
       <c r="BU24" s="1">
-        <v>1319.210000</v>
+        <v>1319.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-691.250000</v>
+        <v>-691.25</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>2156.755638</v>
+        <v>2156.7556380000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.599099</v>
+        <v>0.59909900000000005</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1452.650000</v>
+        <v>1452.65</v>
       </c>
       <c r="CA24" s="1">
-        <v>-906.540000</v>
+        <v>-906.54</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>2169.870855</v>
+        <v>2169.8708550000001</v>
       </c>
       <c r="CD24" s="1">
         <v>0.602742</v>
       </c>
       <c r="CE24" s="1">
-        <v>1805.040000</v>
+        <v>1805.04</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1420.150000</v>
+        <v>-1420.15</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>1996.506681</v>
+        <v>1996.5066810000001</v>
       </c>
       <c r="B25" s="1">
-        <v>0.554585</v>
+        <v>0.55458499999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>896.953000</v>
+        <v>896.95299999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.195000</v>
+        <v>-202.19499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2007.001558</v>
+        <v>2007.0015579999999</v>
       </c>
       <c r="G25" s="1">
-        <v>0.557500</v>
+        <v>0.5575</v>
       </c>
       <c r="H25" s="1">
-        <v>914.938000</v>
+        <v>914.93799999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.081000</v>
+        <v>-171.08099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2017.780621</v>
+        <v>2017.7806210000001</v>
       </c>
       <c r="L25" s="1">
-        <v>0.560495</v>
+        <v>0.56049499999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>938.466000</v>
+        <v>938.46600000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.646000</v>
+        <v>-120.646</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>2028.332975</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.563426</v>
+        <v>0.56342599999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>945.145000</v>
+        <v>945.14499999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.195000</v>
+        <v>-104.19499999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>2038.832817</v>
       </c>
       <c r="V25" s="1">
-        <v>0.566342</v>
+        <v>0.56634200000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>951.855000</v>
+        <v>951.85500000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.105100</v>
+        <v>-88.105099999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2049.384211</v>
+        <v>2049.3842110000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.569273</v>
+        <v>0.56927300000000003</v>
       </c>
       <c r="AB25" s="1">
-        <v>958.987000</v>
+        <v>958.98699999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-75.833500</v>
+        <v>-75.833500000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>2059.523431</v>
+        <v>2059.5234310000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.572090</v>
+        <v>0.57208999999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>963.517000</v>
+        <v>963.51700000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-73.481700</v>
+        <v>-73.481700000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>2069.788629</v>
+        <v>2069.7886290000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.574941</v>
+        <v>0.57494100000000004</v>
       </c>
       <c r="AL25" s="1">
-        <v>970.566000</v>
+        <v>970.56600000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-77.871800</v>
+        <v>-77.871799999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>2080.702570</v>
+        <v>2080.7025699999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.577973</v>
+        <v>0.57797299999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>978.414000</v>
+        <v>978.41399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-88.958700</v>
+        <v>-88.958699999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>2091.583307</v>
+        <v>2091.5833069999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.580995</v>
+        <v>0.58099500000000004</v>
       </c>
       <c r="AV25" s="1">
-        <v>987.925000</v>
+        <v>987.92499999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-106.027000</v>
+        <v>-106.027</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>2102.164596</v>
+        <v>2102.1645960000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.583935</v>
+        <v>0.58393499999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>995.881000</v>
+        <v>995.88099999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-121.186000</v>
+        <v>-121.18600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>2113.194497</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.586998</v>
+        <v>0.58699800000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1032.800000</v>
+        <v>1032.8</v>
       </c>
       <c r="BG25" s="1">
-        <v>-191.332000</v>
+        <v>-191.33199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>2124.202704</v>
+        <v>2124.2027039999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.590056</v>
+        <v>0.59005600000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1096.530000</v>
+        <v>1096.53</v>
       </c>
       <c r="BL25" s="1">
-        <v>-306.341000</v>
+        <v>-306.34100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>2135.285315</v>
+        <v>2135.2853150000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.593135</v>
+        <v>0.59313499999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1200.800000</v>
+        <v>1200.8</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.219000</v>
+        <v>-489.21899999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>2145.812404</v>
+        <v>2145.8124039999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.596059</v>
+        <v>0.59605900000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1319.170000</v>
+        <v>1319.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-691.223000</v>
+        <v>-691.22299999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>2157.173270</v>
+        <v>2157.1732699999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.599215</v>
+        <v>0.59921500000000005</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1452.680000</v>
+        <v>1452.68</v>
       </c>
       <c r="CA25" s="1">
-        <v>-906.583000</v>
+        <v>-906.58299999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>2170.408020</v>
+        <v>2170.4080199999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.602891</v>
+        <v>0.60289099999999995</v>
       </c>
       <c r="CE25" s="1">
-        <v>1806.320000</v>
+        <v>1806.32</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1419.950000</v>
+        <v>-1419.95</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>1996.845982</v>
       </c>
       <c r="B26" s="1">
-        <v>0.554679</v>
+        <v>0.55467900000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>896.860000</v>
+        <v>896.86</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.150000</v>
+        <v>-202.15</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>2007.652781</v>
       </c>
       <c r="G26" s="1">
-        <v>0.557681</v>
+        <v>0.55768099999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>915.043000</v>
+        <v>915.04300000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-170.988000</v>
+        <v>-170.988</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>2018.160030</v>
+        <v>2018.16003</v>
       </c>
       <c r="L26" s="1">
-        <v>0.560600</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>938.265000</v>
+        <v>938.26499999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.755000</v>
+        <v>-120.755</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>2028.725808</v>
+        <v>2028.7258079999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.563535</v>
+        <v>0.56353500000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>945.104000</v>
+        <v>945.10400000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.197000</v>
+        <v>-104.197</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>2039.174067</v>
+        <v>2039.1740669999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.566437</v>
+        <v>0.56643699999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>951.902000</v>
+        <v>951.90200000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.011400</v>
+        <v>-88.011399999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>2049.733891</v>
+        <v>2049.7338909999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.569371</v>
+        <v>0.56937099999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.029000</v>
+        <v>959.029</v>
       </c>
       <c r="AC26" s="1">
-        <v>-75.891800</v>
+        <v>-75.891800000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>2059.867125</v>
+        <v>2059.8671250000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.572185</v>
+        <v>0.57218500000000005</v>
       </c>
       <c r="AG26" s="1">
-        <v>963.580000</v>
+        <v>963.58</v>
       </c>
       <c r="AH26" s="1">
-        <v>-73.512300</v>
+        <v>-73.512299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>2070.201272</v>
+        <v>2070.2012719999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.575056</v>
+        <v>0.57505600000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>970.575000</v>
+        <v>970.57500000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-77.841500</v>
+        <v>-77.841499999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>2081.137563</v>
+        <v>2081.1375630000002</v>
       </c>
       <c r="AP26" s="1">
         <v>0.578094</v>
       </c>
       <c r="AQ26" s="1">
-        <v>978.429000</v>
+        <v>978.42899999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-88.947500</v>
+        <v>-88.947500000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>2091.890364</v>
+        <v>2091.8903639999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.581081</v>
+        <v>0.58108099999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>987.926000</v>
+        <v>987.92600000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-106.026000</v>
+        <v>-106.026</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>2102.523069</v>
+        <v>2102.5230689999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.584034</v>
+        <v>0.58403400000000005</v>
       </c>
       <c r="BA26" s="1">
-        <v>995.877000</v>
+        <v>995.87699999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-121.159000</v>
+        <v>-121.15900000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>2113.554591</v>
+        <v>2113.5545910000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.587098</v>
+        <v>0.58709800000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1032.840000</v>
+        <v>1032.8399999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-191.304000</v>
+        <v>-191.304</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>2124.576689</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.590160</v>
+        <v>0.59016000000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1096.550000</v>
+        <v>1096.55</v>
       </c>
       <c r="BL26" s="1">
-        <v>-306.343000</v>
+        <v>-306.34300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>2135.696034</v>
+        <v>2135.6960340000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.593249</v>
+        <v>0.59324900000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1200.770000</v>
+        <v>1200.77</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.245000</v>
+        <v>-489.245</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>2146.678915</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.596300</v>
+        <v>0.59630000000000005</v>
       </c>
       <c r="BU26" s="1">
-        <v>1319.040000</v>
+        <v>1319.04</v>
       </c>
       <c r="BV26" s="1">
-        <v>-691.236000</v>
+        <v>-691.23599999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>2157.616693</v>
+        <v>2157.6166929999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.599338</v>
+        <v>0.59933800000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1452.800000</v>
+        <v>1452.8</v>
       </c>
       <c r="CA26" s="1">
-        <v>-906.520000</v>
+        <v>-906.52</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>2170.950643</v>
+        <v>2170.9506430000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.603042</v>
+        <v>0.60304199999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1805.040000</v>
+        <v>1805.04</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1419.170000</v>
+        <v>-1419.17</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>